--- a/教育（きょういく）.xlsx
+++ b/教育（きょういく）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE53AA5-BC7C-4842-B81B-261B304602A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EC3FBB-D6DC-4D4C-AC0E-E8B7399D4313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2688" yWindow="1992" windowWidth="16548" windowHeight="10968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="教育（きょういく）" sheetId="2" r:id="rId1"/>
@@ -74,14 +74,6 @@
   </si>
   <si>
     <t>けいさん</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教室、教師</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>きょうし</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1065,6 +1057,14 @@
   </si>
   <si>
     <t>けっせきしゃ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうしつ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教室</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1414,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6217A0CD-8499-4D37-B20D-AEB058474432}">
   <dimension ref="A2:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1451,25 +1451,25 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.45">
@@ -1493,705 +1493,705 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N3" t="s">
+        <v>162</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="N3" t="s">
-        <v>164</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" t="s">
         <v>206</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" t="s">
-        <v>208</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I33" t="s">
         <v>231</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I33" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="G34" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2215,18 +2215,18 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2252,106 +2252,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/教育（きょういく）.xlsx
+++ b/教育（きょういく）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EC3FBB-D6DC-4D4C-AC0E-E8B7399D4313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5893DD8C-0849-4B29-897B-1A1DE54D449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="教育（きょういく）" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="257">
   <si>
     <t>教育</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1065,6 +1065,14 @@
   </si>
   <si>
     <t>教室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>専攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんこう</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1415,7 +1423,7 @@
   <dimension ref="A2:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1892,10 +1900,10 @@
     </row>
     <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>40</v>
@@ -1918,10 +1926,10 @@
     </row>
     <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>42</v>
@@ -1944,10 +1952,10 @@
     </row>
     <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>108</v>
@@ -1969,11 +1977,11 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>185</v>
+      <c r="A21" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>129</v>
@@ -1989,11 +1997,11 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>189</v>
+      <c r="A22" t="s">
+        <v>185</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>191</v>
@@ -2013,10 +2021,10 @@
     </row>
     <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>139</v>
@@ -2033,10 +2041,10 @@
     </row>
     <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C24" t="s">
         <v>206</v>
@@ -2055,11 +2063,11 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>214</v>
+      <c r="A25" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>131</v>
@@ -2076,10 +2084,10 @@
     </row>
     <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>165</v>
@@ -2089,11 +2097,11 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>215</v>
+      <c r="A27" t="s">
+        <v>213</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>167</v>
@@ -2104,10 +2112,10 @@
     </row>
     <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>169</v>
@@ -2118,10 +2126,10 @@
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>187</v>
@@ -2132,7 +2140,10 @@
     </row>
     <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>223</v>
@@ -2142,11 +2153,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>240</v>
+      <c r="A31" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>225</v>
@@ -2156,11 +2164,11 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>244</v>
+      <c r="A32" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>227</v>
@@ -2171,10 +2179,10 @@
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>229</v>
@@ -2187,6 +2195,12 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="G34" s="1" t="s">
         <v>232</v>
       </c>

--- a/教育（きょういく）.xlsx
+++ b/教育（きょういく）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5893DD8C-0849-4B29-897B-1A1DE54D449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51CACDB-C262-4F85-9A65-B93583B6C0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="教育（きょういく）" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="267">
   <si>
     <t>教育</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1075,12 +1075,74 @@
     <t>せんこう</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>感じる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんじる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存じる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぞんじる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受け付ける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>うけつける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受け取る</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>うけとる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>领</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>会到）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（接受）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,6 +1176,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1422,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6217A0CD-8499-4D37-B20D-AEB058474432}">
   <dimension ref="A2:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1575,6 +1644,12 @@
       <c r="K5" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="M5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
@@ -1602,6 +1677,12 @@
       <c r="K6" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
@@ -1629,6 +1710,15 @@
       <c r="K7" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="M7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
@@ -1655,6 +1745,15 @@
       </c>
       <c r="K8" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.45">

--- a/教育（きょういく）.xlsx
+++ b/教育（きょういく）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51CACDB-C262-4F85-9A65-B93583B6C0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C370BDE-ACFE-4724-9900-9EA0732131E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="270">
   <si>
     <t>教育</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1135,6 +1135,18 @@
   </si>
   <si>
     <t>（接受）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いじめ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（霸凌）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虐め、苛め</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1491,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6217A0CD-8499-4D37-B20D-AEB058474432}">
   <dimension ref="A2:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1971,7 +1983,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>155</v>
       </c>
@@ -1997,7 +2009,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>255</v>
       </c>
@@ -2023,7 +2035,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>175</v>
       </c>
@@ -2049,7 +2061,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>171</v>
       </c>
@@ -2075,7 +2087,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>172</v>
       </c>
@@ -2094,8 +2106,17 @@
       <c r="H21" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+      <c r="J21" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>185</v>
       </c>
@@ -2118,7 +2139,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>189</v>
       </c>
@@ -2138,7 +2159,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>201</v>
       </c>
@@ -2161,7 +2182,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>204</v>
       </c>
@@ -2181,7 +2202,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>214</v>
       </c>
@@ -2195,7 +2216,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>213</v>
       </c>
@@ -2209,7 +2230,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>215</v>
       </c>
@@ -2223,7 +2244,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>217</v>
       </c>
@@ -2237,7 +2258,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>234</v>
       </c>
@@ -2251,7 +2272,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>236</v>
       </c>
@@ -2262,7 +2283,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>239</v>
       </c>

--- a/教育（きょういく）.xlsx
+++ b/教育（きょういく）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C370BDE-ACFE-4724-9900-9EA0732131E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2138E68C-08FD-459C-9E21-0B3A5AB4E55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="272">
   <si>
     <t>教育</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1147,6 +1147,14 @@
   </si>
   <si>
     <t>虐め、苛め</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>予備校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>よびこう</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1501,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6217A0CD-8499-4D37-B20D-AEB058474432}">
-  <dimension ref="A2:R34"/>
+  <dimension ref="A2:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1878,10 +1886,10 @@
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>271</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>179</v>
@@ -1905,10 +1913,10 @@
     </row>
     <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>192</v>
@@ -1932,10 +1940,10 @@
     </row>
     <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>194</v>
@@ -1959,10 +1967,10 @@
     </row>
     <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -1985,10 +1993,10 @@
     </row>
     <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>181</v>
@@ -2011,10 +2019,10 @@
     </row>
     <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>40</v>
@@ -2037,10 +2045,10 @@
     </row>
     <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>42</v>
@@ -2063,10 +2071,10 @@
     </row>
     <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>108</v>
@@ -2089,10 +2097,10 @@
     </row>
     <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>129</v>
@@ -2117,11 +2125,11 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>185</v>
+      <c r="A22" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>191</v>
@@ -2140,11 +2148,11 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>189</v>
+      <c r="A23" t="s">
+        <v>185</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>139</v>
@@ -2161,10 +2169,10 @@
     </row>
     <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
         <v>206</v>
@@ -2184,10 +2192,10 @@
     </row>
     <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>131</v>
@@ -2203,11 +2211,11 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>214</v>
+      <c r="A26" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>165</v>
@@ -2218,10 +2226,10 @@
     </row>
     <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>167</v>
@@ -2231,11 +2239,11 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>215</v>
+      <c r="A28" t="s">
+        <v>213</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>169</v>
@@ -2246,10 +2254,10 @@
     </row>
     <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>187</v>
@@ -2260,10 +2268,10 @@
     </row>
     <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>223</v>
@@ -2274,7 +2282,10 @@
     </row>
     <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>225</v>
@@ -2284,11 +2295,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>240</v>
+      <c r="A32" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>227</v>
@@ -2298,11 +2306,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>244</v>
+      <c r="A33" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>229</v>
@@ -2316,16 +2324,24 @@
     </row>
     <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>232</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/教育（きょういく）.xlsx
+++ b/教育（きょういく）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2138E68C-08FD-459C-9E21-0B3A5AB4E55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84E51F1-CEE8-4D23-8881-90CE7C78E63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1511,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6217A0CD-8499-4D37-B20D-AEB058474432}">
   <dimension ref="A2:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/教育（きょういく）.xlsx
+++ b/教育（きょういく）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84E51F1-CEE8-4D23-8881-90CE7C78E63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB5A4DD-A956-4A03-A449-03B2310D8E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1512,7 +1512,7 @@
   <dimension ref="A2:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/教育（きょういく）.xlsx
+++ b/教育（きょういく）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB5A4DD-A956-4A03-A449-03B2310D8E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00BCA45-4245-4B4F-853A-4267930E2D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="276">
   <si>
     <t>教育</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1155,6 +1155,22 @@
   </si>
   <si>
     <t>よびこう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>よはく</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教科書</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうかしょ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1509,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6217A0CD-8499-4D37-B20D-AEB058474432}">
-  <dimension ref="A2:R35"/>
+  <dimension ref="A2:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1604,6 +1620,12 @@
       <c r="O3" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="Q3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -2342,6 +2364,14 @@
       </c>
       <c r="B35" s="1" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/教育（きょういく）.xlsx
+++ b/教育（きょういく）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00BCA45-4245-4B4F-853A-4267930E2D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897FC42E-C50A-43EC-8219-253CC16AD00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="280">
   <si>
     <t>教育</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1171,6 +1171,22 @@
   </si>
   <si>
     <t>きょうかしょ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>育成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いくせい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>はかせ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1525,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6217A0CD-8499-4D37-B20D-AEB058474432}">
-  <dimension ref="A2:R36"/>
+  <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2372,6 +2388,22 @@
       </c>
       <c r="B36" s="1" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
